--- a/Datascraping/output_excel_files_new/National Institute of Technology Durgapur_tables.xlsx
+++ b/Datascraping/output_excel_files_new/National Institute of Technology Durgapur_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,12 +611,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>380</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -649,85 +649,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PG-Integrated</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Outside Country@@ -735,7 +692,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Economically Backward@@ -743,7 +700,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -752,7 +709,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -763,7 +720,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -773,7 +730,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -783,7 +740,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -793,104 +750,172 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UG [4 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UG [4 Years+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UG [5 Years+          <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>450</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>582</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>433</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -900,22 +925,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>253</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>305</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -925,183 +950,48 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PG [2 Year-Program(s)]</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>839</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PG-Integrated</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -1109,13 +999,13 @@
 time</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1123,59 +1013,59 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2016-17</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>685</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>453</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>797500(Seven Lakhs Ninety Seven@@ -1183,9 +1073,121 @@
 Hundred Only)</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>680000(Six Lakhs+Eighty Thousand Only)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>810000(Eight Lakhs+Ten Thousand Only)</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1195,153 +1197,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>647</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>680000(Six Lakhs-Eighty Thousand Only)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>697</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>685</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>810000(Eight Lakhs-Ten Thousand Only)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -1349,13 +1239,13 @@
 time</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1363,13 +1253,123 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1377,52 +1377,53 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0(Zero)</t>
+          <t>690000(Six Lakhs+Ninety Thousand Only)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1432,152 +1433,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>690000(Six Lakhs-Ninety Thousand Only)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>No. of students graduating in minimum stipulated time</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1585,11 +1475,107 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>750000(Seven Lakhs+Fifty Thousand Only)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>740000(Seven Lakhs+Forty Thousand Only)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>169</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1601,43 +1587,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>380</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>750000(Seven Lakhs-Fifty Thousand Only)</t>
+          <t>900000(Nine Lakhs+Only)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>155</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1649,45 +1635,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>710000(Seven Lakhs-Ten Thousand Only)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1695,48 +1652,18 @@
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>815000(Eight Lakhs-Fifteen Thousand-Only)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1746,55 +1673,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Academic Year</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>No. of first year-students intake in the-year</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>No. of first year-students admitted in-the year</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>No. of students-placed</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Median salary of-placed graduates per-annum(Amount in-Rs.)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No. of students-selected for Higher-Studies</t>
-        </is>
-      </c>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1804,44 +1696,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1851,44 +1719,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1896,46 +1736,26 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1945,12 +1765,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1962,14 +1794,26 @@
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1983,16 +1827,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>391</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2004,18 +1856,22 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -2029,7 +1885,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2046,20 +1902,27 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Library ( Books, Journals and e-Resources only)</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>64127625 (Six Crore Forty One Lakh Twenty Seven Thousand+Six Hundred Twenty Five Only)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>79349519 (Seven Crore Ninety Three Lakh Forty Nine+Thousand Five Hundred Nineteen Only)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>16687336 (One crore sixty six lakhs eighty seven thousand+three hundred thirty six only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2075,22 +1938,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>52083144 (Five Crore Twenty Lakhs Eighty Three Thousand+One Hundred Forty Four Only)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68548409 (Six Crore Eighty Five Lakhs Forty Eight Thousand+Four Hundred Nine Only)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>75000013 (Seven Crore Fifty Lakhs Thirteen Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2106,22 +1971,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>Engineering Workshops</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1250000 (Twelve Lakhs Fifty Thousand Only )</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4337178 (Forty Seven Lakhs Thirty Seven Thousand One+Hundred Seventy Eight Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2137,22 +2003,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>44522568 (Four Crore Forty Five Lakhs Twenty Two Thousand+Five Hundred Sixty Eight Only)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>11774390 (One Crore Seventeen Lakhs Seventy Four+Thousand Three Hundred Ninety Only)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>10441904 (One crore four lakhs forty one lakhs nine hundred+four only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2166,20 +2037,24 @@
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2193,14 +2068,22 @@
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2214,27 +2097,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>64127625 (Six Crore Forty One Lakh Twenty Seven Thousand-Six Hundred Twenty Five Only)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>79349519 (Seven Crore Ninety Three Lakh Forty Nine-Thousand Five Hundred Nineteen Only)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>16687336 (One crore sixty six lakhs eighty seven thousand-three hundred thirty six only)</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2248,24 +2116,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>52083144 (Five Crore Twenty Lakhs Eighty Three Thousand-One Hundred Forty Four Only)</t>
+          <t>1098033571 (One hundred nine Crore Eighty Lakhs Thirty+Three Thousand Five Hundred Seventy One Only)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>68548409 (Six Crore Eighty Five Lakhs Forty Eight Thousand-Four Hundred Nine Only)</t>
+          <t>975674199 (Ninety Seven Crore Fifty Six Lakhs Seventy Four+Thousand One Hundred Ninety Nine Only)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>75000013 (Seven Crore Fifty Lakhs Thirteen Only)</t>
+          <t>910068865 (Ninety One Crore Sixty Eight Thousand Eight+Hundred Sixty Five)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2281,22 +2150,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Engineering Workshops</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1250000 (Twelve Lakhs Fifty Thousand Only )</t>
+          <t>409227504 (Forty Crore Ninety Two Lakhs Twenty Seven+Thousand Five Hundred Four Only)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>436529655 (Forty Three Crore Sixty Five Lakhs Twenty Nine+Thousand Six Hundred Fifty Five Only)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>474334640 (Forty Seven Crore Forty Three Lakhs Thirty Four+Thousand Six Hundred Forty Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2312,23 +2186,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>2044770 (Twenty Lakhs Forty Four Thousand Seven Hundred+Seventy Only)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>5799121 (Fifty Seven Lakhs Ninety Nine Thousand One+Hundred Twenty One Only)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4337178 (Forty Seven Lakhs Thirty Seven Thousand One-Hundred Seventy Eight Only)</t>
+          <t>24815434 (Two crore forty eight lakhs fifteen thousand four+hundred thirty four only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2344,26 +2220,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>44522568 (Four Crore Forty Five Lakhs Twenty Two Thousand-Five Hundred Sixty Eight Only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11774390 (One Crore Seventeen Lakhs Seventy Four-Thousand Three Hundred Ninety Only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10441904 (One crore four lakhs forty one lakhs nine hundred-four only)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2379,22 +2251,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2408,20 +2280,24 @@
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2437,12 +2313,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>142172532</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>103690269</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>109952740</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2456,25 +2344,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1098033571 (One hundred nine Crore Eighty Lakhs Thirty-Three Thousand Five Hundred Seventy One Only)</t>
+          <t>Fourteen Crore twenty one lakhs seventy two thousand five+hundred thirty two only</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>960718132 (Ninety Seven Crore Fifty Six Lakhs Seventy Four-Thousand One Hundred Ninety Nine Only)</t>
+          <t>Ten Crore thirty six lakhs ninety thousand two hundred sixty+nine only</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>910068865 (Ninety one crore fifty lakh two thousand Forty-Eight)</t>
+          <t>Ten Crore ninety nine lakhs fifty two thousand seven hundred+forty only</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2490,27 +2378,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>409227504 (Forty Crore Ninety Two Lakhs Twenty Seven-Thousand Five Hundred Four Only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>436529655 (Forty Three Crore Sixty Five Lakhs Twenty Nine-Thousand Six Hundred Fifty Five Only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>474334640 (Forty Seven Crore Forty Three Lakhs Thirty Four-Thousand Six Hundred Forty Only)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2526,25 +2409,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2044770 (Twenty Lakhs Forty Four Thousand Seven Hundred-Seventy Only)</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5799121 (Fifty Seven Lakhs Ninety Nine Thousand One-Hundred Twenty One Only)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>24815434 (Two crore forty eight lakhs fifteen thousand four-hundred thirty four only)</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2560,22 +2440,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2591,22 +2471,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>21777093</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>22233236</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>23191052</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2622,22 +2502,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Two Crore Seventeen Lakhs Seventy Seven Thousand Ninety+Three Only</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Two Crore Twenty Two Lakhs Thirty Three Thousand Two+Hundred Thirty Six Only</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Two Crore Thirty One Lakhs Ninety One Thousand Fifty Two+Only</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2653,24 +2536,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>142172532</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>103690269</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>109952740</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2684,27 +2559,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fourteen Crore twenty one lakhs seventy two thousand five-hundred thirty two only</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Ten Crore thirty six lakhs ninety thousand two hundred sixty-nine only</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Ten Crore ninety nine lakhs fifty two thousand seven hundred-forty only</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2718,24 +2583,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2749,24 +2606,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2777,352 +2626,6 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Total no. of Client Organizations</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>21777093</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>22233236</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>23191052</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Two Crore Seventeen Lakhs Seventy Seven Thousand Ninety-Three Only</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Two Crore Twenty Two Lakhs Thirty Three Thousand Two-Hundred Thirty Six Only</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Two Crore Thirty One Lakhs Ninety One Thousand Fifty Two-Only</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Total no. of Participants</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1202250</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Twelve Lakhs Two Thousands Two Hundred Fifty Only</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
